--- a/output/fit_clients/fit_round_334.xlsx
+++ b/output/fit_clients/fit_round_334.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2329884951.656871</v>
+        <v>1786246839.210687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1034282289023249</v>
+        <v>0.08793128648902883</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04529337040686099</v>
+        <v>0.042340712864167</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1164942515.872615</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1687533523.154368</v>
+        <v>2492380972.440531</v>
       </c>
       <c r="F3" t="n">
-        <v>0.165211209471245</v>
+        <v>0.176353602195214</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03593860501886397</v>
+        <v>0.03291619897815484</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>843766753.2506839</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4617746539.884405</v>
+        <v>3582417672.285461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1521688136244121</v>
+        <v>0.1590787931568726</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03201529655977906</v>
+        <v>0.03171543379814643</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>120</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2308873327.901338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3076433387.767727</v>
+        <v>4054261403.123452</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1031657173468551</v>
+        <v>0.08642477493132197</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03919631888375035</v>
+        <v>0.04581567683335764</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1538216758.716695</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2046164141.533328</v>
+        <v>2806373883.213861</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1050258573924941</v>
+        <v>0.1271684969340391</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04183661815773452</v>
+        <v>0.05329157663722389</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1023082095.371748</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2223041703.553447</v>
+        <v>2585590983.033062</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06934934145023156</v>
+        <v>0.08460020271173162</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03140789187941455</v>
+        <v>0.03727505925321066</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>103</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1111520891.453861</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3759304962.388021</v>
+        <v>2507571194.213375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.201882881832545</v>
+        <v>0.1779702646500817</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02809537463879677</v>
+        <v>0.02324864174271133</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>106</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1879652616.337789</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1866555347.656089</v>
+        <v>2029396154.566835</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1752974360725013</v>
+        <v>0.1358496838799776</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02491537755147282</v>
+        <v>0.03725984263600826</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>933277718.953316</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4401187966.729397</v>
+        <v>4064444136.460668</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1771520841343537</v>
+        <v>0.1384437035965221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05209719680320092</v>
+        <v>0.04310799805587474</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>140</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2200594036.322762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3436094628.094046</v>
+        <v>2640505507.399357</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1399397757514808</v>
+        <v>0.1167793503624165</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0419545834960838</v>
+        <v>0.04223976276506386</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>138</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1718047287.450032</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2123112664.186642</v>
+        <v>2028243164.340138</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1209861741138143</v>
+        <v>0.1336788710081073</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04007434393783865</v>
+        <v>0.03248211897569177</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>114</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1061556269.798718</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4120740022.759775</v>
+        <v>4282394003.611656</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06920178743332075</v>
+        <v>0.09713589659107401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02418821755692367</v>
+        <v>0.03131476011834598</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>112</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2060370060.177412</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3254034057.425634</v>
+        <v>2650014659.288076</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1135953646004042</v>
+        <v>0.1693088942948253</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03641614551761033</v>
+        <v>0.03134510669149116</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>109</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1627017044.764277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1756014427.896955</v>
+        <v>1739740514.99535</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08793871185045013</v>
+        <v>0.09423396933904107</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04429193107809718</v>
+        <v>0.04688610672149755</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>878007357.4961507</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2729884888.607775</v>
+        <v>2470232115.044242</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0837140953406051</v>
+        <v>0.07232100793684389</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0357953745646272</v>
+        <v>0.04657533387714289</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1364942454.592437</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4517013009.407604</v>
+        <v>5165566241.124567</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1095908005421688</v>
+        <v>0.1676150500999321</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05111255529220456</v>
+        <v>0.03780845313094831</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>97</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2258506513.708838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3859064526.790367</v>
+        <v>3485688839.081985</v>
       </c>
       <c r="F18" t="n">
-        <v>0.155610118070437</v>
+        <v>0.1662383890077986</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02508671599071398</v>
+        <v>0.02733316376566447</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>109</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1929532231.422084</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1046687600.884546</v>
+        <v>885050653.4172493</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1237219996121389</v>
+        <v>0.185099603388682</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02736949417463586</v>
+        <v>0.01707854048898408</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>523343841.0532742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2619410947.987971</v>
+        <v>1829896761.461591</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1122321866529527</v>
+        <v>0.1192428435960343</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02850737211166528</v>
+        <v>0.0221628757674972</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1309705434.377954</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2075309817.499034</v>
+        <v>2481173017.05794</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09616809199812019</v>
+        <v>0.07552510768877513</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03654666639797333</v>
+        <v>0.02896846897712722</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>28</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1037654937.523161</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4050017972.970179</v>
+        <v>2972868927.182053</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09766354491015757</v>
+        <v>0.1356442165808941</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04556161306394508</v>
+        <v>0.04073675837360924</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>92</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2025008985.14836</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1334559671.747021</v>
+        <v>1038287438.776326</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1145550380551699</v>
+        <v>0.1182770584202278</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04610366791253432</v>
+        <v>0.03556184839807273</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>667279849.6916219</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2729893029.976403</v>
+        <v>2673949540.03342</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1306272029600113</v>
+        <v>0.1451778178340583</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0369843862045827</v>
+        <v>0.02679349502141085</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>97</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1364946568.399953</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1459439688.116052</v>
+        <v>1137805400.57416</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1166433755916305</v>
+        <v>0.1140017695366068</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02314915825837117</v>
+        <v>0.02867611531775527</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>729719802.3342936</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>998720885.7896118</v>
+        <v>1185144393.958342</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1173527622289861</v>
+        <v>0.107671035890381</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02457312077793078</v>
+        <v>0.0373964498297445</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>499360414.7237656</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2860503595.858027</v>
+        <v>2993144842.571214</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09955431868609997</v>
+        <v>0.1125620943465744</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0253172959949601</v>
+        <v>0.0260281782889705</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1430251864.665449</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3311721981.429678</v>
+        <v>3476740137.094959</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1424980830194278</v>
+        <v>0.140656668485431</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03386087213448723</v>
+        <v>0.04772388696070899</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1655861028.996754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3911675166.561877</v>
+        <v>5782142714.608283</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1154981114718393</v>
+        <v>0.09830674264744697</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03278296759349113</v>
+        <v>0.03269934848461039</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>147</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1955837606.236488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1480168952.526604</v>
+        <v>1588337019.598048</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1289010152478216</v>
+        <v>0.0927748707077776</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02645051609183191</v>
+        <v>0.04027030215613921</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>740084454.5100636</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1157188614.135903</v>
+        <v>1481221853.644068</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07174453242908874</v>
+        <v>0.07285248154372365</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05122949669011933</v>
+        <v>0.03475530525276932</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>578594268.6185296</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1265384710.98159</v>
+        <v>1358275571.561954</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07992400067397329</v>
+        <v>0.1188467030330051</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03470501283758733</v>
+        <v>0.02991975678949159</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>632692375.2535042</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2050178126.74768</v>
+        <v>1911570225.640891</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1954537009782986</v>
+        <v>0.1256821560757473</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04811103305201982</v>
+        <v>0.04619749151115668</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>100</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1025089139.898391</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1535239758.234962</v>
+        <v>1210402349.120519</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09872975119057349</v>
+        <v>0.07903699719767945</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02240470570855653</v>
+        <v>0.0250582245945072</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>767619829.1865871</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1222539333.573763</v>
+        <v>1291293449.229912</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09365432394706664</v>
+        <v>0.09133501564868732</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02731904827841237</v>
+        <v>0.03313161415911502</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>611269636.5935435</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3202002104.081997</v>
+        <v>1964511036.120581</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1399740434250453</v>
+        <v>0.1149261535546107</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02521133238142995</v>
+        <v>0.01889633925368226</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>84</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1601001017.755927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2771326313.013852</v>
+        <v>2633919260.79699</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07534183504100352</v>
+        <v>0.07794547412292011</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04146412388057467</v>
+        <v>0.03885570491696586</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>89</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1385663289.901946</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2030459574.657759</v>
+        <v>1842487715.581428</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0820052863658868</v>
+        <v>0.1166675411897573</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02917235609061619</v>
+        <v>0.02885626645678066</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1015229761.657715</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1894284393.954427</v>
+        <v>2099461133.018346</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1698522878630012</v>
+        <v>0.1803825614518899</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02585975900042203</v>
+        <v>0.02081128479488465</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>947142207.561664</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1612076733.636409</v>
+        <v>1727810720.48515</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1593151618835645</v>
+        <v>0.1364014698673431</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04975724825276354</v>
+        <v>0.04074666207524613</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>806038304.9631693</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2697809668.368459</v>
+        <v>1781838176.324223</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1020466359864156</v>
+        <v>0.1079543869422558</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03183750593814735</v>
+        <v>0.04646054304332721</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>84</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1348904840.086369</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3227124103.93937</v>
+        <v>4192769327.886042</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08185758376804694</v>
+        <v>0.1235595770129835</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03117816542466272</v>
+        <v>0.04169907250963593</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>109</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1613562028.052835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2586350281.58578</v>
+        <v>2886112792.033607</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1806652985157156</v>
+        <v>0.1783441209661834</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02183063762747679</v>
+        <v>0.01843090117818358</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>121</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1293175180.784918</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1850408791.560675</v>
+        <v>2136248929.964815</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07550364104876021</v>
+        <v>0.06999304327716512</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02840575876108012</v>
+        <v>0.02441876823166463</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>925204472.2690833</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2134451484.861288</v>
+        <v>1840486363.82946</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1183670217653004</v>
+        <v>0.1176464884843691</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03707303150979215</v>
+        <v>0.03652859177654433</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1067225746.89294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3662319902.187137</v>
+        <v>3788068715.624959</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1119786434712481</v>
+        <v>0.1667256090398668</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04286169106829785</v>
+        <v>0.05971453730921372</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>118</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1831159901.309046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4373573843.643934</v>
+        <v>4486535657.464816</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1403850155788194</v>
+        <v>0.1732066504284384</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04323781034506405</v>
+        <v>0.04336881020708998</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>89</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2186786942.119965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4088561323.474302</v>
+        <v>4117262116.740457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07366875399118224</v>
+        <v>0.0863570282571437</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03429034353897008</v>
+        <v>0.03368659309752122</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>111</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2044280690.945428</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1716916611.263035</v>
+        <v>1847204541.494598</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1250649254862632</v>
+        <v>0.1314115064266515</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03462365439100811</v>
+        <v>0.04362639728477937</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>858458303.9459889</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3934463270.741674</v>
+        <v>2692158870.416108</v>
       </c>
       <c r="F50" t="n">
-        <v>0.172942289995387</v>
+        <v>0.1330001386646373</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0324715571898865</v>
+        <v>0.04588086754837185</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>114</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1967231628.726695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>976266764.2236332</v>
+        <v>1008264256.015727</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1797378420819291</v>
+        <v>0.1540084171803669</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03720329340652908</v>
+        <v>0.05043687182159506</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>488133469.9283626</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4386646412.693557</v>
+        <v>3809090130.558137</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1074220591967681</v>
+        <v>0.1141925978849975</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0398468857787758</v>
+        <v>0.05697748962855798</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>137</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2193323240.07906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3539750685.943221</v>
+        <v>2656921517.515043</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1310946930104678</v>
+        <v>0.1970133501869021</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03339438676213554</v>
+        <v>0.03501508960259275</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>96</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1769875338.142977</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3244545326.638183</v>
+        <v>4509478292.900237</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1578716801164257</v>
+        <v>0.1023544450973002</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04987260504006874</v>
+        <v>0.05097075337944967</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>109</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1622272668.086681</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4698824540.994173</v>
+        <v>3467291727.454459</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1694983666386558</v>
+        <v>0.1885167475204524</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02024264894629861</v>
+        <v>0.02867837189959219</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2349412276.239238</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1559021825.276731</v>
+        <v>1459888781.519026</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1121899188490095</v>
+        <v>0.1574907505646379</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05099904366100312</v>
+        <v>0.04491635776565787</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>779510946.1747869</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3519664073.610611</v>
+        <v>3021096458.759434</v>
       </c>
       <c r="F57" t="n">
-        <v>0.160793154473379</v>
+        <v>0.160998039937888</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02420931744253442</v>
+        <v>0.01706412669859799</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>106</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1759832084.848545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1240850678.496349</v>
+        <v>1448245642.726487</v>
       </c>
       <c r="F58" t="n">
-        <v>0.183555937736785</v>
+        <v>0.1725797026861907</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02662578365915962</v>
+        <v>0.03389258624586951</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>620425394.0342366</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5396840786.319749</v>
+        <v>3865211482.786059</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1007757349866585</v>
+        <v>0.1098964810328955</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04143341444809299</v>
+        <v>0.03784196819599957</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2698420301.743897</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2569426567.347379</v>
+        <v>2867862348.299926</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1614910901655368</v>
+        <v>0.1989933405194591</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03186759157725594</v>
+        <v>0.02485803520370139</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>105</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1284713308.864821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2730479453.476532</v>
+        <v>2334266974.029367</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1719672240246436</v>
+        <v>0.1473350225015558</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03003679696589378</v>
+        <v>0.02433046678073431</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>115</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1365239732.62847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1810613466.232557</v>
+        <v>1475338007.522959</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1353466448986992</v>
+        <v>0.1586262339168223</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03255718770034175</v>
+        <v>0.03020075085698654</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>905306762.7910746</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3695391006.166036</v>
+        <v>4733237279.469723</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07709391274025752</v>
+        <v>0.06479829129313071</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0396636688393576</v>
+        <v>0.03008765874759728</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1847695579.087389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4655474073.015005</v>
+        <v>4558125341.089763</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1386734963462342</v>
+        <v>0.1493593034049655</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03047419820947652</v>
+        <v>0.02508293393212789</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>104</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2327737118.477266</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4363883747.633835</v>
+        <v>4239132007.515653</v>
       </c>
       <c r="F65" t="n">
-        <v>0.113713454693631</v>
+        <v>0.1713513583911007</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03200061099305545</v>
+        <v>0.02770596603294147</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>119</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2181941870.699876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5437083955.400976</v>
+        <v>4054746586.423358</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1312027110837322</v>
+        <v>0.110985436988728</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03337167563285915</v>
+        <v>0.03212482054066763</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>98</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2718542028.285522</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2715409007.480038</v>
+        <v>3346304844.577636</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0813771489096678</v>
+        <v>0.0907451212190802</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03484252237375914</v>
+        <v>0.03137580790522386</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>107</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1357704546.072252</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5600844582.3412</v>
+        <v>3722764509.198707</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1029688679955845</v>
+        <v>0.106531312540243</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03968766583599363</v>
+        <v>0.03937162167002662</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>106</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2800422383.975245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1817549086.51224</v>
+        <v>1696797888.650491</v>
       </c>
       <c r="F69" t="n">
-        <v>0.182104236136116</v>
+        <v>0.1653597332547306</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04416242176556869</v>
+        <v>0.04508346199449562</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>908774524.6135571</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3706324804.963789</v>
+        <v>2802038133.642019</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07980780606450343</v>
+        <v>0.06600534813535661</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04876671846698487</v>
+        <v>0.03989608034158699</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>95</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1853162425.406833</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4003663776.38115</v>
+        <v>3582492748.231892</v>
       </c>
       <c r="F71" t="n">
-        <v>0.122573640753196</v>
+        <v>0.1211521462476699</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03316197136416876</v>
+        <v>0.02277049527853901</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>122</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2001831919.522585</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2145344486.833364</v>
+        <v>1476482281.148037</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07895399506646077</v>
+        <v>0.07437711178970878</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03810441449816629</v>
+        <v>0.04201071809749235</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1072672166.324815</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3278287379.140828</v>
+        <v>2871204697.901748</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07442151057972234</v>
+        <v>0.08899536727641591</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03337059156279083</v>
+        <v>0.05172582330144633</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>126</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1639143660.083112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3987368913.599232</v>
+        <v>2674863983.635672</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1455981025961154</v>
+        <v>0.139850745217994</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02879133843554804</v>
+        <v>0.03090556354150585</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>114</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1993684436.857343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2315755085.645982</v>
+        <v>2368135034.069376</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1262672187954895</v>
+        <v>0.1079913978201149</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02803788970350879</v>
+        <v>0.02384810120607872</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1157877477.412158</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3427496013.177324</v>
+        <v>3728508623.030936</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07535885951824343</v>
+        <v>0.1005743223546526</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02653814110495023</v>
+        <v>0.03413692669957891</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1713747967.322547</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2113696451.614731</v>
+        <v>2069430257.249585</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1569040079868935</v>
+        <v>0.1392522796322735</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0304673543089552</v>
+        <v>0.03046957284452415</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1056848304.161071</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2962123708.359066</v>
+        <v>3091585308.786906</v>
       </c>
       <c r="F78" t="n">
-        <v>0.119427386085086</v>
+        <v>0.1250415966332385</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03467200920812179</v>
+        <v>0.04243769411848092</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>116</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1481061894.188299</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1787754397.516696</v>
+        <v>1214600869.476496</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1550894093322709</v>
+        <v>0.1530618995292007</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03939585562576883</v>
+        <v>0.0304510808726659</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>893877283.2768222</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4272370054.013527</v>
+        <v>3950796215.544477</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06890671543579885</v>
+        <v>0.101897619539921</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02992152981119994</v>
+        <v>0.03820550895266098</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>70</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2136185040.018185</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3412836826.498083</v>
+        <v>3748256380.248331</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1054484722541053</v>
+        <v>0.1371108970569269</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03167600446998211</v>
+        <v>0.02927514269491457</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1706418354.680785</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5523415134.067179</v>
+        <v>3793309886.044875</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2104718770901595</v>
+        <v>0.198703833623479</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02556548395958179</v>
+        <v>0.02520553753290248</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>116</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2761707521.758009</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1950084683.593783</v>
+        <v>2462720360.646241</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1284664738363612</v>
+        <v>0.1011935467279833</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04205895610908908</v>
+        <v>0.04462481914169562</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>975042320.920559</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2087191457.853532</v>
+        <v>1690210648.520542</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1183237237964851</v>
+        <v>0.07388781688115072</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0432881468823395</v>
+        <v>0.04814173483423871</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1043595721.145341</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2952749982.951242</v>
+        <v>3231752342.743702</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1219394318579129</v>
+        <v>0.1667337485692588</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03780685233697748</v>
+        <v>0.04063448849048255</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>126</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1476375046.417813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2196478509.721786</v>
+        <v>2373998212.977404</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1260007711776311</v>
+        <v>0.1290973226138436</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01757597503389918</v>
+        <v>0.01929666688484143</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1098239309.825068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1155774247.939865</v>
+        <v>1390494206.650188</v>
       </c>
       <c r="F87" t="n">
-        <v>0.184803592217789</v>
+        <v>0.1610966466107329</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02947876440952429</v>
+        <v>0.03677796341882036</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>577887168.2188984</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3010105064.11605</v>
+        <v>3566100197.56959</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1461772686990596</v>
+        <v>0.1422725557019303</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02965909151093259</v>
+        <v>0.02764088668390248</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>131</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1505052563.505309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3268558960.679004</v>
+        <v>3324204036.851384</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1139115464606666</v>
+        <v>0.1201305899500777</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03698766460215976</v>
+        <v>0.03580761977589939</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>113</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1634279498.759095</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1911872884.832966</v>
+        <v>1598030973.636672</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1265725998317095</v>
+        <v>0.1352789819172797</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04158847833504455</v>
+        <v>0.05633712762126129</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>955936496.5216433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2109255032.798615</v>
+        <v>1898153583.628914</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1232475622232329</v>
+        <v>0.15248272947108</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06086160891703005</v>
+        <v>0.0532435845488084</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1054627474.093889</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2464435956.333887</v>
+        <v>2725617443.928217</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1005743889571519</v>
+        <v>0.07557557657794936</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03168668444407025</v>
+        <v>0.04219520206727843</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>90</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1232217959.445959</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3789624913.04398</v>
+        <v>3403904838.69887</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1296866216185894</v>
+        <v>0.08993163707515582</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04789752376426988</v>
+        <v>0.0418066520004723</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1894812470.750118</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2497389475.343259</v>
+        <v>2071911181.802758</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1251989485852973</v>
+        <v>0.1065832766707577</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0394913539164557</v>
+        <v>0.02939848432208664</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1248694800.827736</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2006190759.740402</v>
+        <v>2321651681.265869</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08523328009689186</v>
+        <v>0.1079184379361896</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03337890600307312</v>
+        <v>0.04275576243337614</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>80</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1003095451.886656</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2152238713.800149</v>
+        <v>1688792008.244246</v>
       </c>
       <c r="F96" t="n">
-        <v>0.100649882690883</v>
+        <v>0.08963197588821634</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03601920180352465</v>
+        <v>0.04378042493977913</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1076119327.631659</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5234810594.420982</v>
+        <v>4439096974.964562</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1577565996867287</v>
+        <v>0.165974238683374</v>
       </c>
       <c r="G97" t="n">
-        <v>0.027175574836487</v>
+        <v>0.0291390940613093</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>108</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2617405452.896974</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2397644903.606604</v>
+        <v>3759358888.192009</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1274597719648329</v>
+        <v>0.08972964326296683</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02145513111412201</v>
+        <v>0.0285666076949119</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1198822395.637187</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2844860491.158293</v>
+        <v>3308883401.101861</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09562592377743517</v>
+        <v>0.1401159591830267</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02637737754007552</v>
+        <v>0.03112489060655263</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>105</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1422430220.282236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3497668201.947256</v>
+        <v>3627023469.351313</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1659269128646259</v>
+        <v>0.1687521883493116</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02175326920881852</v>
+        <v>0.02753059090583445</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1748834131.561805</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3571642037.947133</v>
+        <v>2751745497.320998</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1898078457947344</v>
+        <v>0.1628488199216134</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04902774379279559</v>
+        <v>0.05673561252105344</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>134</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1785821183.554632</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_334.xlsx
+++ b/output/fit_clients/fit_round_334.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1786246839.210687</v>
+        <v>2482250773.647595</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08793128648902883</v>
+        <v>0.1055653359609392</v>
       </c>
       <c r="G2" t="n">
-        <v>0.042340712864167</v>
+        <v>0.04417605634526482</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2492380972.440531</v>
+        <v>2135124114.198008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.176353602195214</v>
+        <v>0.1724404026786461</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03291619897815484</v>
+        <v>0.04041051073348436</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3582417672.285461</v>
+        <v>3865849347.158561</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1590787931568726</v>
+        <v>0.1341893333871581</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03171543379814643</v>
+        <v>0.03204101888938594</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4054261403.123452</v>
+        <v>2890374700.967764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08642477493132197</v>
+        <v>0.1006547145041872</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04581567683335764</v>
+        <v>0.04003269459131925</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2806373883.213861</v>
+        <v>2800463650.881693</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1271684969340391</v>
+        <v>0.136304979725466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05329157663722389</v>
+        <v>0.04844478204658716</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2585590983.033062</v>
+        <v>2241174651.539171</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08460020271173162</v>
+        <v>0.07368497261176568</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03727505925321066</v>
+        <v>0.04958470781039082</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2507571194.213375</v>
+        <v>3145003945.926058</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1779702646500817</v>
+        <v>0.2036839977974787</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02324864174271133</v>
+        <v>0.03358144803184752</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2029396154.566835</v>
+        <v>2252180618.320796</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1358496838799776</v>
+        <v>0.1724483322045757</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03725984263600826</v>
+        <v>0.02838048071782918</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4064444136.460668</v>
+        <v>5516063521.018292</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1384437035965221</v>
+        <v>0.1776039410404133</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04310799805587474</v>
+        <v>0.04655265167593116</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2640505507.399357</v>
+        <v>3835978963.669839</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1167793503624165</v>
+        <v>0.17000482827292</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04223976276506386</v>
+        <v>0.04622884840183549</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2028243164.340138</v>
+        <v>2677890274.942479</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1336788710081073</v>
+        <v>0.1330988415929</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03248211897569177</v>
+        <v>0.04411715913367697</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4282394003.611656</v>
+        <v>3425381508.831892</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09713589659107401</v>
+        <v>0.08480840375116724</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03131476011834598</v>
+        <v>0.01899333730124077</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2650014659.288076</v>
+        <v>2368628674.661026</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1693088942948253</v>
+        <v>0.1780314614811094</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03134510669149116</v>
+        <v>0.03723908894645641</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1739740514.99535</v>
+        <v>1262102161.58014</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09423396933904107</v>
+        <v>0.1054941637532047</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04688610672149755</v>
+        <v>0.04013934720054656</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2470232115.044242</v>
+        <v>2215468295.757281</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07232100793684389</v>
+        <v>0.09823969826316878</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04657533387714289</v>
+        <v>0.04547022589252869</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5165566241.124567</v>
+        <v>4238796590.603115</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1676150500999321</v>
+        <v>0.1276082399490652</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03780845313094831</v>
+        <v>0.04395308411366826</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3485688839.081985</v>
+        <v>3095828024.596297</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1662383890077986</v>
+        <v>0.1556321646518928</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02733316376566447</v>
+        <v>0.02556337972104936</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>885050653.4172493</v>
+        <v>1291375257.040259</v>
       </c>
       <c r="F19" t="n">
-        <v>0.185099603388682</v>
+        <v>0.1594656521385911</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01707854048898408</v>
+        <v>0.01865147155393861</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1829896761.461591</v>
+        <v>2683716518.55904</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1192428435960343</v>
+        <v>0.1508991411423938</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0221628757674972</v>
+        <v>0.02214371795109412</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2481173017.05794</v>
+        <v>2492066116.803405</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07552510768877513</v>
+        <v>0.08264633464069654</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02896846897712722</v>
+        <v>0.03920662216305285</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2972868927.182053</v>
+        <v>3420593072.440482</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1356442165808941</v>
+        <v>0.1134835016235176</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04073675837360924</v>
+        <v>0.04619247296478764</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1038287438.776326</v>
+        <v>1550545323.010859</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1182770584202278</v>
+        <v>0.1656185869024403</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03556184839807273</v>
+        <v>0.04779014710808541</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2673949540.03342</v>
+        <v>2925636104.377322</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1451778178340583</v>
+        <v>0.1275448893113532</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02679349502141085</v>
+        <v>0.03453469447835449</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1137805400.57416</v>
+        <v>1218162000.976801</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1140017695366068</v>
+        <v>0.1041528954607795</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02867611531775527</v>
+        <v>0.0301535174166161</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1185144393.958342</v>
+        <v>1432886726.14187</v>
       </c>
       <c r="F26" t="n">
-        <v>0.107671035890381</v>
+        <v>0.09506862904198242</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0373964498297445</v>
+        <v>0.03330063876719089</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2993144842.571214</v>
+        <v>4614674453.357447</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1125620943465744</v>
+        <v>0.1258455945485199</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0260281782889705</v>
+        <v>0.02351368691339422</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3476740137.094959</v>
+        <v>3713768123.96546</v>
       </c>
       <c r="F28" t="n">
-        <v>0.140656668485431</v>
+        <v>0.101244675138732</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04772388696070899</v>
+        <v>0.04399518699211095</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5782142714.608283</v>
+        <v>4514482775.494245</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09830674264744697</v>
+        <v>0.1205840857761346</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03269934848461039</v>
+        <v>0.03116596158880528</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1588337019.598048</v>
+        <v>1976803522.49031</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0927748707077776</v>
+        <v>0.09964561666599975</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04027030215613921</v>
+        <v>0.0370667956505031</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1481221853.644068</v>
+        <v>1323611613.324617</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07285248154372365</v>
+        <v>0.09418808802423068</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03475530525276932</v>
+        <v>0.03943842976858777</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1358275571.561954</v>
+        <v>1345659442.590515</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1188467030330051</v>
+        <v>0.1020368590029829</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02991975678949159</v>
+        <v>0.03274400397598737</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1911570225.640891</v>
+        <v>1889823826.615912</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1256821560757473</v>
+        <v>0.1947868594016073</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04619749151115668</v>
+        <v>0.05943804602377328</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1210402349.120519</v>
+        <v>1272450425.267735</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07903699719767945</v>
+        <v>0.08391511653185774</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0250582245945072</v>
+        <v>0.0184920929263985</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1291293449.229912</v>
+        <v>837638143.1116395</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09133501564868732</v>
+        <v>0.1083003426580516</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03313161415911502</v>
+        <v>0.03354599866257506</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1964511036.120581</v>
+        <v>1995793909.242978</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1149261535546107</v>
+        <v>0.1101109989106452</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01889633925368226</v>
+        <v>0.02863316944650986</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2633919260.79699</v>
+        <v>2388669441.013838</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07794547412292011</v>
+        <v>0.08852676722867482</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03885570491696586</v>
+        <v>0.02753743121905033</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1842487715.581428</v>
+        <v>1844553341.49399</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1166675411897573</v>
+        <v>0.08221241349358906</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02885626645678066</v>
+        <v>0.02425480585743159</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2099461133.018346</v>
+        <v>1889933014.001718</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1803825614518899</v>
+        <v>0.1581806059488792</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02081128479488465</v>
+        <v>0.02103351545469137</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1727810720.48515</v>
+        <v>1117797754.052418</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1364014698673431</v>
+        <v>0.1147335723230914</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04074666207524613</v>
+        <v>0.04682499173210285</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1781838176.324223</v>
+        <v>2499831699.436511</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1079543869422558</v>
+        <v>0.1260881340602978</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04646054304332721</v>
+        <v>0.03134276683563698</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4192769327.886042</v>
+        <v>3885257458.374951</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1235595770129835</v>
+        <v>0.1253791526178544</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04169907250963593</v>
+        <v>0.03725603624233342</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2886112792.033607</v>
+        <v>1874314380.085643</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1783441209661834</v>
+        <v>0.1264707341891311</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01843090117818358</v>
+        <v>0.02430756899445887</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2136248929.964815</v>
+        <v>1996643089.484175</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06999304327716512</v>
+        <v>0.07151254073246564</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02441876823166463</v>
+        <v>0.03107027101332282</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1840486363.82946</v>
+        <v>2441460586.279021</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1176464884843691</v>
+        <v>0.1862596134311599</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03652859177654433</v>
+        <v>0.04049375951423869</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3788068715.624959</v>
+        <v>3835438408.240887</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1667256090398668</v>
+        <v>0.1451055323790304</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05971453730921372</v>
+        <v>0.05409285451583987</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4486535657.464816</v>
+        <v>4563962662.178842</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1732066504284384</v>
+        <v>0.1761241104275796</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04336881020708998</v>
+        <v>0.04708309976925681</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4117262116.740457</v>
+        <v>4519593330.175194</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0863570282571437</v>
+        <v>0.08249029485735966</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03368659309752122</v>
+        <v>0.03774244178459179</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1847204541.494598</v>
+        <v>1444277878.231399</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1314115064266515</v>
+        <v>0.1719186877258874</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04362639728477937</v>
+        <v>0.02852933147395289</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2692158870.416108</v>
+        <v>3515703312.064892</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1330001386646373</v>
+        <v>0.1693048303613685</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04588086754837185</v>
+        <v>0.03930414621147242</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1008264256.015727</v>
+        <v>1197689051.217281</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1540084171803669</v>
+        <v>0.1534081970825172</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05043687182159506</v>
+        <v>0.04595116288012688</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3809090130.558137</v>
+        <v>4520475091.531421</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1141925978849975</v>
+        <v>0.1167746039524136</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05697748962855798</v>
+        <v>0.05622459257471105</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2656921517.515043</v>
+        <v>3348585233.457474</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1970133501869021</v>
+        <v>0.1693925827423026</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03501508960259275</v>
+        <v>0.02887610076249186</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4509478292.900237</v>
+        <v>4468823637.894625</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1023544450973002</v>
+        <v>0.1450202043765472</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05097075337944967</v>
+        <v>0.04051973284945275</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3467291727.454459</v>
+        <v>4296033464.875718</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1885167475204524</v>
+        <v>0.197454446007009</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02867837189959219</v>
+        <v>0.02017561729925153</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1459888781.519026</v>
+        <v>1682594092.10695</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1574907505646379</v>
+        <v>0.1259492923223252</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04491635776565787</v>
+        <v>0.05057093158069645</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3021096458.759434</v>
+        <v>3308151342.468572</v>
       </c>
       <c r="F57" t="n">
-        <v>0.160998039937888</v>
+        <v>0.1306619353182711</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01706412669859799</v>
+        <v>0.02242305657743534</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1448245642.726487</v>
+        <v>1735150939.520617</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1725797026861907</v>
+        <v>0.1353011859363968</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03389258624586951</v>
+        <v>0.02893181707853678</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3865211482.786059</v>
+        <v>4789398133.716798</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1098964810328955</v>
+        <v>0.08884886061275474</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03784196819599957</v>
+        <v>0.04791541964508705</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2867862348.299926</v>
+        <v>3613065957.973424</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1989933405194591</v>
+        <v>0.1782708815527884</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02485803520370139</v>
+        <v>0.02722049804136467</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2334266974.029367</v>
+        <v>2603592813.864168</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1473350225015558</v>
+        <v>0.1365819604973612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02433046678073431</v>
+        <v>0.02937209442659334</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1475338007.522959</v>
+        <v>1613926932.083635</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1586262339168223</v>
+        <v>0.1495067832196001</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03020075085698654</v>
+        <v>0.03983012056731508</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4733237279.469723</v>
+        <v>4027231816.012455</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06479829129313071</v>
+        <v>0.09521389640798382</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03008765874759728</v>
+        <v>0.04767704992427829</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4558125341.089763</v>
+        <v>4898692130.704799</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1493593034049655</v>
+        <v>0.16366746518376</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02508293393212789</v>
+        <v>0.03402933827018055</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4239132007.515653</v>
+        <v>4783038668.623602</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1713513583911007</v>
+        <v>0.1068467745142955</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02770596603294147</v>
+        <v>0.02618407871915145</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4054746586.423358</v>
+        <v>4039458956.378738</v>
       </c>
       <c r="F66" t="n">
-        <v>0.110985436988728</v>
+        <v>0.09971109127198938</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03212482054066763</v>
+        <v>0.04645498212463306</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3346304844.577636</v>
+        <v>2244197659.817961</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0907451212190802</v>
+        <v>0.06331568168959763</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03137580790522386</v>
+        <v>0.04292297488083116</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3722764509.198707</v>
+        <v>3754568850.083835</v>
       </c>
       <c r="F68" t="n">
-        <v>0.106531312540243</v>
+        <v>0.1025642294104073</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03937162167002662</v>
+        <v>0.03469732805095457</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1696797888.650491</v>
+        <v>2107192312.124557</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1653597332547306</v>
+        <v>0.1713244684834249</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04508346199449562</v>
+        <v>0.03868398765218685</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2802038133.642019</v>
+        <v>3433796515.520189</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06600534813535661</v>
+        <v>0.06982699601235509</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03989608034158699</v>
+        <v>0.04284313187334205</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3582492748.231892</v>
+        <v>3595040453.030469</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1211521462476699</v>
+        <v>0.1190193626697224</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02277049527853901</v>
+        <v>0.0303927363992267</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1476482281.148037</v>
+        <v>1530662209.06932</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07437711178970878</v>
+        <v>0.1063511807774948</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04201071809749235</v>
+        <v>0.04593389983190872</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2871204697.901748</v>
+        <v>2636655788.468532</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08899536727641591</v>
+        <v>0.07469818353344004</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05172582330144633</v>
+        <v>0.04909905438941965</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2674863983.635672</v>
+        <v>2434142786.163553</v>
       </c>
       <c r="F74" t="n">
-        <v>0.139850745217994</v>
+        <v>0.147843066245932</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03090556354150585</v>
+        <v>0.0296138272475676</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2368135034.069376</v>
+        <v>1901762365.527451</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1079913978201149</v>
+        <v>0.1047175575289236</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02384810120607872</v>
+        <v>0.03628601891116169</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3728508623.030936</v>
+        <v>5236484457.83278</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1005743223546526</v>
+        <v>0.1191226324745336</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03413692669957891</v>
+        <v>0.02558948522671387</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2069430257.249585</v>
+        <v>1754721982.071459</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1392522796322735</v>
+        <v>0.1482406971383619</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03046957284452415</v>
+        <v>0.02803169824305357</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3091585308.786906</v>
+        <v>4618623384.09514</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1250415966332385</v>
+        <v>0.1009000809803016</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04243769411848092</v>
+        <v>0.05718336687298812</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1214600869.476496</v>
+        <v>1714854514.911043</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1530618995292007</v>
+        <v>0.1170109866252432</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0304510808726659</v>
+        <v>0.02706615399912019</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3950796215.544477</v>
+        <v>5441238511.591969</v>
       </c>
       <c r="F80" t="n">
-        <v>0.101897619539921</v>
+        <v>0.08559079960412834</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03820550895266098</v>
+        <v>0.03466238147551907</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3748256380.248331</v>
+        <v>4770916658.383284</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1371108970569269</v>
+        <v>0.09497679408154895</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02927514269491457</v>
+        <v>0.02448754853979569</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3793309886.044875</v>
+        <v>3680693481.177105</v>
       </c>
       <c r="F82" t="n">
-        <v>0.198703833623479</v>
+        <v>0.185860936734647</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02520553753290248</v>
+        <v>0.02556007834971478</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2462720360.646241</v>
+        <v>2253802212.54436</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1011935467279833</v>
+        <v>0.1492845283545793</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04462481914169562</v>
+        <v>0.0339988914066127</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1690210648.520542</v>
+        <v>1900491214.163252</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07388781688115072</v>
+        <v>0.1071168493468768</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04814173483423871</v>
+        <v>0.0480316527440631</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3231752342.743702</v>
+        <v>3107013060.735538</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1667337485692588</v>
+        <v>0.1437639120167908</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04063448849048255</v>
+        <v>0.0513434904067553</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2373998212.977404</v>
+        <v>2517665891.867169</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1290973226138436</v>
+        <v>0.1045691766925015</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01929666688484143</v>
+        <v>0.01904382182816183</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1390494206.650188</v>
+        <v>1290168471.700627</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1610966466107329</v>
+        <v>0.1258972793521085</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03677796341882036</v>
+        <v>0.03447642784390968</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3566100197.56959</v>
+        <v>3531468308.728195</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1422725557019303</v>
+        <v>0.1303691891440902</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02764088668390248</v>
+        <v>0.03158632798551231</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3324204036.851384</v>
+        <v>2461402134.116595</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1201305899500777</v>
+        <v>0.1299452413119085</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03580761977589939</v>
+        <v>0.03472964204251738</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1598030973.636672</v>
+        <v>1796120050.728151</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1352789819172797</v>
+        <v>0.100688113495676</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05633712762126129</v>
+        <v>0.03436290214766901</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1898153583.628914</v>
+        <v>1516336393.017777</v>
       </c>
       <c r="F91" t="n">
-        <v>0.15248272947108</v>
+        <v>0.1902563582485577</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0532435845488084</v>
+        <v>0.05122867490087291</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2725617443.928217</v>
+        <v>2383294739.89804</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07557557657794936</v>
+        <v>0.09120354499896935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04219520206727843</v>
+        <v>0.0431925945603625</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3403904838.69887</v>
+        <v>3277693867.451293</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08993163707515582</v>
+        <v>0.1312712223789743</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0418066520004723</v>
+        <v>0.03396117288414783</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2071911181.802758</v>
+        <v>2218109596.175928</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1065832766707577</v>
+        <v>0.1188761745002606</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02939848432208664</v>
+        <v>0.02906175840359816</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2321651681.265869</v>
+        <v>2098323252.934838</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1079184379361896</v>
+        <v>0.09880037362691847</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04275576243337614</v>
+        <v>0.04626634605442109</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1688792008.244246</v>
+        <v>2026696050.974837</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08963197588821634</v>
+        <v>0.134512043088869</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04378042493977913</v>
+        <v>0.04167973224404728</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4439096974.964562</v>
+        <v>4397892353.815406</v>
       </c>
       <c r="F97" t="n">
-        <v>0.165974238683374</v>
+        <v>0.1666570075467043</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0291390940613093</v>
+        <v>0.02088383960663754</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3759358888.192009</v>
+        <v>3520508906.169853</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08972964326296683</v>
+        <v>0.1077375976536903</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0285666076949119</v>
+        <v>0.02463740350186139</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3308883401.101861</v>
+        <v>3016550802.84905</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1401159591830267</v>
+        <v>0.121963665482267</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03112489060655263</v>
+        <v>0.02688441009382778</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3627023469.351313</v>
+        <v>3418668230.548472</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1687521883493116</v>
+        <v>0.1150296427636356</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02753059090583445</v>
+        <v>0.02197284445290235</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2751745497.320998</v>
+        <v>2785798544.450114</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1628488199216134</v>
+        <v>0.2197613710519984</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05673561252105344</v>
+        <v>0.04954996775734847</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_334.xlsx
+++ b/output/fit_clients/fit_round_334.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2482250773.647595</v>
+        <v>2435556481.637354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1055653359609392</v>
+        <v>0.1008729438253683</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04417605634526482</v>
+        <v>0.03456405538434344</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2135124114.198008</v>
+        <v>1863527667.517003</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1724404026786461</v>
+        <v>0.120079935031369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04041051073348436</v>
+        <v>0.03240987448041502</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3865849347.158561</v>
+        <v>4292105375.348844</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1341893333871581</v>
+        <v>0.143618233248458</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03204101888938594</v>
+        <v>0.03615896153094696</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>173</v>
+      </c>
+      <c r="J4" t="n">
+        <v>334</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2890374700.967764</v>
+        <v>4045154752.556147</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1006547145041872</v>
+        <v>0.07500683323445718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04003269459131925</v>
+        <v>0.03663661782123665</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>132</v>
+      </c>
+      <c r="J5" t="n">
+        <v>334</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2800463650.881693</v>
+        <v>2752832600.922684</v>
       </c>
       <c r="F6" t="n">
-        <v>0.136304979725466</v>
+        <v>0.1071343165715443</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04844478204658716</v>
+        <v>0.04889836227132387</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2241174651.539171</v>
+        <v>2052148546.491691</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07368497261176568</v>
+        <v>0.07306027049850465</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04958470781039082</v>
+        <v>0.04195817112584577</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3145003945.926058</v>
+        <v>3013664008.776049</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2036839977974787</v>
+        <v>0.1909326653652221</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03358144803184752</v>
+        <v>0.02190187807001119</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2252180618.320796</v>
+        <v>1779785378.404485</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1724483322045757</v>
+        <v>0.162435935600037</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02838048071782918</v>
+        <v>0.03623879254846927</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5516063521.018292</v>
+        <v>4853911525.58645</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1776039410404133</v>
+        <v>0.1943962075303575</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04655265167593116</v>
+        <v>0.03534575549011766</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>287</v>
+      </c>
+      <c r="J10" t="n">
+        <v>334</v>
+      </c>
+      <c r="K10" t="n">
+        <v>70.50110812488921</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3835978963.669839</v>
+        <v>3511741162.643447</v>
       </c>
       <c r="F11" t="n">
-        <v>0.17000482827292</v>
+        <v>0.1868101999623024</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04622884840183549</v>
+        <v>0.04658670855269002</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>136</v>
+      </c>
+      <c r="J11" t="n">
+        <v>333</v>
+      </c>
+      <c r="K11" t="n">
+        <v>64.39045103674677</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2677890274.942479</v>
+        <v>2352252011.838549</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1330988415929</v>
+        <v>0.1241049985015096</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04411715913367697</v>
+        <v>0.0348261006775054</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3425381508.831892</v>
+        <v>5045696969.528995</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08480840375116724</v>
+        <v>0.06753708647417936</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01899333730124077</v>
+        <v>0.03041568004677483</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>174</v>
+      </c>
+      <c r="J13" t="n">
+        <v>333</v>
+      </c>
+      <c r="K13" t="n">
+        <v>66.93029250852609</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2368628674.661026</v>
+        <v>3350006247.423044</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1780314614811094</v>
+        <v>0.1170061817640789</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03723908894645641</v>
+        <v>0.03353928940815134</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>68</v>
+      </c>
+      <c r="J14" t="n">
+        <v>331</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1262102161.58014</v>
+        <v>1312129775.068964</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1054941637532047</v>
+        <v>0.06977848638258401</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04013934720054656</v>
+        <v>0.03866451342223464</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2215468295.757281</v>
+        <v>2495840773.429599</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09823969826316878</v>
+        <v>0.07518425120913093</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04547022589252869</v>
+        <v>0.04235049188532217</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4238796590.603115</v>
+        <v>4771690335.254232</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1276082399490652</v>
+        <v>0.166354672921627</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04395308411366826</v>
+        <v>0.04960775253605976</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>157</v>
+      </c>
+      <c r="J17" t="n">
+        <v>334</v>
+      </c>
+      <c r="K17" t="n">
+        <v>71.6721545437137</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3095828024.596297</v>
+        <v>3423572026.961157</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1556321646518928</v>
+        <v>0.116884206297818</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02556337972104936</v>
+        <v>0.02455696119818458</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>82</v>
+      </c>
+      <c r="J18" t="n">
+        <v>329</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1291375257.040259</v>
+        <v>1133861697.143723</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1594656521385911</v>
+        <v>0.1386082241941133</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01865147155393861</v>
+        <v>0.01655046981438673</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2683716518.55904</v>
+        <v>1698279049.939284</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1508991411423938</v>
+        <v>0.121588089767114</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02214371795109412</v>
+        <v>0.02083756388873342</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2492066116.803405</v>
+        <v>2637984225.745872</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08264633464069654</v>
+        <v>0.07836917430995516</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03920662216305285</v>
+        <v>0.0279655560512205</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3420593072.440482</v>
+        <v>3503343584.73296</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1134835016235176</v>
+        <v>0.08950126108014778</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04619247296478764</v>
+        <v>0.04283768695922006</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>92</v>
+      </c>
+      <c r="J22" t="n">
+        <v>331</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1550545323.010859</v>
+        <v>1190555209.939232</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1656185869024403</v>
+        <v>0.1681553846554343</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04779014710808541</v>
+        <v>0.04365440798358865</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2925636104.377322</v>
+        <v>2904562752.755116</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1275448893113532</v>
+        <v>0.113482145335731</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03453469447835449</v>
+        <v>0.02777219281899109</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>99</v>
+      </c>
+      <c r="J24" t="n">
+        <v>332</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1218162000.976801</v>
+        <v>1035352620.749216</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1041528954607795</v>
+        <v>0.1106849331870604</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0301535174166161</v>
+        <v>0.02093675839544867</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1432886726.14187</v>
+        <v>1441143752.026827</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09506862904198242</v>
+        <v>0.07720794878751121</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03330063876719089</v>
+        <v>0.03305106937814335</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4614674453.357447</v>
+        <v>3321661937.949351</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1258455945485199</v>
+        <v>0.09507535111281003</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02351368691339422</v>
+        <v>0.02051280312305516</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>139</v>
+      </c>
+      <c r="J27" t="n">
+        <v>333</v>
+      </c>
+      <c r="K27" t="n">
+        <v>49.75734404904461</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3713768123.96546</v>
+        <v>3732210154.650676</v>
       </c>
       <c r="F28" t="n">
-        <v>0.101244675138732</v>
+        <v>0.1520685488965995</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04399518699211095</v>
+        <v>0.03832714940604359</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>334</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4514482775.494245</v>
+        <v>5647047764.017172</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1205840857761346</v>
+        <v>0.13547687419485</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03116596158880528</v>
+        <v>0.02854435746077547</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>304</v>
+      </c>
+      <c r="J29" t="n">
+        <v>333</v>
+      </c>
+      <c r="K29" t="n">
+        <v>69.96643223859377</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1976803522.49031</v>
+        <v>2210237423.509932</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09964561666599975</v>
+        <v>0.1309626365717783</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0370667956505031</v>
+        <v>0.03243613798112821</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1323611613.324617</v>
+        <v>1145968363.267739</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09418808802423068</v>
+        <v>0.1115300452221552</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03943842976858777</v>
+        <v>0.03437020053830623</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1345659442.590515</v>
+        <v>1844583551.216076</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1020368590029829</v>
+        <v>0.1042473544167832</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03274400397598737</v>
+        <v>0.03537740732186543</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1889823826.615912</v>
+        <v>2566447479.625243</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1947868594016073</v>
+        <v>0.1947709918942093</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05943804602377328</v>
+        <v>0.05858010350154336</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1272450425.267735</v>
+        <v>1045799694.267254</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08391511653185774</v>
+        <v>0.1133901976090277</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0184920929263985</v>
+        <v>0.02819319851857167</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>837638143.1116395</v>
+        <v>1237235696.387938</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1083003426580516</v>
+        <v>0.08192384630667687</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03354599866257506</v>
+        <v>0.03258188998111543</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1995793909.242978</v>
+        <v>2167535391.088026</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1101109989106452</v>
+        <v>0.1127041020094836</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02863316944650986</v>
+        <v>0.02477740504984734</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2388669441.013838</v>
+        <v>2549568834.689109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08852676722867482</v>
+        <v>0.08307855781313721</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02753743121905033</v>
+        <v>0.03133721079334705</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1844553341.49399</v>
+        <v>1598624439.04607</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08221241349358906</v>
+        <v>0.1168206366521555</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02425480585743159</v>
+        <v>0.02736839127147649</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1889933014.001718</v>
+        <v>1915241055.948111</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1581806059488792</v>
+        <v>0.1939040288016831</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02103351545469137</v>
+        <v>0.02682060496195828</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1117797754.052418</v>
+        <v>1679096446.343848</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1147335723230914</v>
+        <v>0.1424724435234197</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04682499173210285</v>
+        <v>0.03626510286285428</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2499831699.436511</v>
+        <v>2657783091.483992</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1260881340602978</v>
+        <v>0.1088013713320062</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03134276683563698</v>
+        <v>0.04016472159949447</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3885257458.374951</v>
+        <v>3823980994.011478</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1253791526178544</v>
+        <v>0.1100201892387235</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03725603624233342</v>
+        <v>0.0466200518675095</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>141</v>
+      </c>
+      <c r="J42" t="n">
+        <v>334</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1874314380.085643</v>
+        <v>2147868307.186453</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1264707341891311</v>
+        <v>0.1601071895208048</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02430756899445887</v>
+        <v>0.02300508184147699</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1996643089.484175</v>
+        <v>1997371201.645423</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07151254073246564</v>
+        <v>0.07296327394069067</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03107027101332282</v>
+        <v>0.02449362408814389</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2441460586.279021</v>
+        <v>2030020419.305229</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1862596134311599</v>
+        <v>0.163182975580369</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04049375951423869</v>
+        <v>0.0357936179713769</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3835438408.240887</v>
+        <v>4447591250.36399</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1451055323790304</v>
+        <v>0.1325310199721206</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05409285451583987</v>
+        <v>0.05299206761672976</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>199</v>
+      </c>
+      <c r="J46" t="n">
+        <v>334</v>
+      </c>
+      <c r="K46" t="n">
+        <v>70.67225978177244</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4563962662.178842</v>
+        <v>4944182186.184015</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1761241104275796</v>
+        <v>0.1558753507993444</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04708309976925681</v>
+        <v>0.04367770385963569</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>148</v>
+      </c>
+      <c r="J47" t="n">
+        <v>334</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4519593330.175194</v>
+        <v>4361014954.999125</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08249029485735966</v>
+        <v>0.09278985313495358</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03774244178459179</v>
+        <v>0.03692985285965092</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>165</v>
+      </c>
+      <c r="J48" t="n">
+        <v>334</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1444277878.231399</v>
+        <v>1762607710.782967</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1719186877258874</v>
+        <v>0.149347565612451</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02852933147395289</v>
+        <v>0.03589900280529348</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3515703312.064892</v>
+        <v>3160048561.820389</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1693048303613685</v>
+        <v>0.1358515976393216</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03930414621147242</v>
+        <v>0.04012268090704287</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>110</v>
+      </c>
+      <c r="J50" t="n">
+        <v>333</v>
+      </c>
+      <c r="K50" t="n">
+        <v>49.42991696335382</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1197689051.217281</v>
+        <v>1085560035.993292</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1534081970825172</v>
+        <v>0.1473701375308294</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04595116288012688</v>
+        <v>0.04550446213097123</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4520475091.531421</v>
+        <v>3923831735.264289</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1167746039524136</v>
+        <v>0.09102124538641621</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05622459257471105</v>
+        <v>0.04015536040949777</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>201</v>
+      </c>
+      <c r="J52" t="n">
+        <v>334</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3348585233.457474</v>
+        <v>2947721006.178497</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1693925827423026</v>
+        <v>0.1855351861887513</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02887610076249186</v>
+        <v>0.03006126582987214</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4468823637.894625</v>
+        <v>4587598592.002592</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1450202043765472</v>
+        <v>0.1322447716507353</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04051973284945275</v>
+        <v>0.03654180626109502</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>176</v>
+      </c>
+      <c r="J54" t="n">
+        <v>334</v>
+      </c>
+      <c r="K54" t="n">
+        <v>71.27430034106621</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4296033464.875718</v>
+        <v>4038195865.046657</v>
       </c>
       <c r="F55" t="n">
-        <v>0.197454446007009</v>
+        <v>0.1523948405183995</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02017561729925153</v>
+        <v>0.0214464494534089</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>158</v>
+      </c>
+      <c r="J55" t="n">
+        <v>334</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1682594092.10695</v>
+        <v>1217182928.530248</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1259492923223252</v>
+        <v>0.1534934920921489</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05057093158069645</v>
+        <v>0.03845343282015872</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3308151342.468572</v>
+        <v>3726419244.797021</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1306619353182711</v>
+        <v>0.1344132818337177</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02242305657743534</v>
+        <v>0.0256667254785453</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>136</v>
+      </c>
+      <c r="J57" t="n">
+        <v>334</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1735150939.520617</v>
+        <v>1528830009.365345</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1353011859363968</v>
+        <v>0.1641026932192625</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02893181707853678</v>
+        <v>0.03953044036869321</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2514,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4789398133.716798</v>
+        <v>3968674350.123362</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08884886061275474</v>
+        <v>0.1026897927398104</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04791541964508705</v>
+        <v>0.04940689066942005</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>161</v>
+      </c>
+      <c r="J59" t="n">
+        <v>333</v>
+      </c>
+      <c r="K59" t="n">
+        <v>68.79955993822318</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3613065957.973424</v>
+        <v>3086308035.600125</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1782708815527884</v>
+        <v>0.1564808505661482</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02722049804136467</v>
+        <v>0.03009008985989318</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+      <c r="J60" t="n">
+        <v>330</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2603592813.864168</v>
+        <v>2187057195.615242</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1365819604973612</v>
+        <v>0.1269035939576648</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02937209442659334</v>
+        <v>0.02940988176844625</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1613926932.083635</v>
+        <v>1794030868.439048</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1495067832196001</v>
+        <v>0.1494622701266839</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03983012056731508</v>
+        <v>0.04805034492298383</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4027231816.012455</v>
+        <v>4508439937.184315</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09521389640798382</v>
+        <v>0.07323667344049881</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04767704992427829</v>
+        <v>0.0354054333635653</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>163</v>
+      </c>
+      <c r="J63" t="n">
+        <v>333</v>
+      </c>
+      <c r="K63" t="n">
+        <v>68.59627193921845</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4898692130.704799</v>
+        <v>3542147743.539762</v>
       </c>
       <c r="F64" t="n">
-        <v>0.16366746518376</v>
+        <v>0.1208395729123336</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03402933827018055</v>
+        <v>0.02764684102486807</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>165</v>
+      </c>
+      <c r="J64" t="n">
+        <v>333</v>
+      </c>
+      <c r="K64" t="n">
+        <v>56.93729697772503</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4783038668.623602</v>
+        <v>4305573770.244512</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1068467745142955</v>
+        <v>0.1205969654756325</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02618407871915145</v>
+        <v>0.02622044071631703</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>260</v>
+      </c>
+      <c r="J65" t="n">
+        <v>334</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4039458956.378738</v>
+        <v>5067089193.042787</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09971109127198938</v>
+        <v>0.1412819801307252</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04645498212463306</v>
+        <v>0.04984495172489923</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>165</v>
+      </c>
+      <c r="J66" t="n">
+        <v>333</v>
+      </c>
+      <c r="K66" t="n">
+        <v>63.58442836355378</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2244197659.817961</v>
+        <v>3296701471.267392</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06331568168959763</v>
+        <v>0.06788597749455505</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04292297488083116</v>
+        <v>0.04334202971370989</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3754568850.083835</v>
+        <v>3888518540.842057</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1025642294104073</v>
+        <v>0.1004704202733073</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03469732805095457</v>
+        <v>0.0334419916181204</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>182</v>
+      </c>
+      <c r="J68" t="n">
+        <v>333</v>
+      </c>
+      <c r="K68" t="n">
+        <v>67.27180343302763</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2107192312.124557</v>
+        <v>2235926122.164024</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1713244684834249</v>
+        <v>0.1302220831257178</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03868398765218685</v>
+        <v>0.04689031404282763</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3433796515.520189</v>
+        <v>3330631379.552867</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06982699601235509</v>
+        <v>0.1007300996203452</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04284313187334205</v>
+        <v>0.03300843525587121</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3595040453.030469</v>
+        <v>4105847473.922243</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1190193626697224</v>
+        <v>0.1853128318639926</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0303927363992267</v>
+        <v>0.024955012305681</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>246</v>
+      </c>
+      <c r="J71" t="n">
+        <v>334</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1530662209.06932</v>
+        <v>2080086806.454627</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1063511807774948</v>
+        <v>0.07746852682985786</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04593389983190872</v>
+        <v>0.03573517944650015</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2636655788.468532</v>
+        <v>2707576440.524034</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07469818353344004</v>
+        <v>0.06879480446673711</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04909905438941965</v>
+        <v>0.03447966807705769</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2434142786.163553</v>
+        <v>2577700101.073045</v>
       </c>
       <c r="F74" t="n">
-        <v>0.147843066245932</v>
+        <v>0.1357292926743096</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0296138272475676</v>
+        <v>0.03299537838593775</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>88</v>
+      </c>
+      <c r="J74" t="n">
+        <v>333</v>
+      </c>
+      <c r="K74" t="n">
+        <v>37.46728493046995</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1901762365.527451</v>
+        <v>1516189808.839403</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1047175575289236</v>
+        <v>0.1658902594494101</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03628601891116169</v>
+        <v>0.03333253341390759</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5236484457.83278</v>
+        <v>5251460243.69359</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1191226324745336</v>
+        <v>0.1096462230073771</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02558948522671387</v>
+        <v>0.03167873005515087</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>157</v>
+      </c>
+      <c r="J76" t="n">
+        <v>334</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1754721982.071459</v>
+        <v>2267304477.302429</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1482406971383619</v>
+        <v>0.1542018630009843</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02803169824305357</v>
+        <v>0.02951042464109037</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4618623384.09514</v>
+        <v>3015857583.444922</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1009000809803016</v>
+        <v>0.1024961813434536</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05718336687298812</v>
+        <v>0.04590711981916621</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>164</v>
+      </c>
+      <c r="J78" t="n">
+        <v>333</v>
+      </c>
+      <c r="K78" t="n">
+        <v>43.25008144355333</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1714854514.911043</v>
+        <v>1676262383.351776</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1170109866252432</v>
+        <v>0.127832835659753</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02706615399912019</v>
+        <v>0.03232533640586178</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5441238511.591969</v>
+        <v>3812336234.15778</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08559079960412834</v>
+        <v>0.09169212321821374</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03466238147551907</v>
+        <v>0.02426220465381602</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>163</v>
+      </c>
+      <c r="J80" t="n">
+        <v>334</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4770916658.383284</v>
+        <v>3403129976.373202</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09497679408154895</v>
+        <v>0.1044866323020626</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02448754853979569</v>
+        <v>0.03185647796623532</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>154</v>
+      </c>
+      <c r="J81" t="n">
+        <v>333</v>
+      </c>
+      <c r="K81" t="n">
+        <v>49.04576142036952</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3680693481.177105</v>
+        <v>5101918670.101585</v>
       </c>
       <c r="F82" t="n">
-        <v>0.185860936734647</v>
+        <v>0.1839916474253228</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02556007834971478</v>
+        <v>0.01915622640237698</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>240</v>
+      </c>
+      <c r="J82" t="n">
+        <v>333</v>
+      </c>
+      <c r="K82" t="n">
+        <v>69.24035281546787</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2253802212.54436</v>
+        <v>2321057393.805631</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1492845283545793</v>
+        <v>0.1334350035133667</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0339988914066127</v>
+        <v>0.028725317470959</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1900491214.163252</v>
+        <v>1753554318.268709</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1071168493468768</v>
+        <v>0.09964320417337864</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0480316527440631</v>
+        <v>0.04234826556510899</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3107013060.735538</v>
+        <v>2646993019.322462</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1437639120167908</v>
+        <v>0.1442251479870519</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0513434904067553</v>
+        <v>0.04279977794674646</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>44</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2517665891.867169</v>
+        <v>1699508187.087346</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1045691766925015</v>
+        <v>0.1073431937882873</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01904382182816183</v>
+        <v>0.02166214084712578</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1290168471.700627</v>
+        <v>1367631577.50517</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1258972793521085</v>
+        <v>0.1372699586349103</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03447642784390968</v>
+        <v>0.04356934402054814</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3531468308.728195</v>
+        <v>2993792994.060738</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1303691891440902</v>
+        <v>0.141865662621675</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03158632798551231</v>
+        <v>0.03341162872453123</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3576,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2461402134.116595</v>
+        <v>2469059952.35679</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1299452413119085</v>
+        <v>0.1137981373849688</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03472964204251738</v>
+        <v>0.03169965212911813</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="n">
+        <v>38.78753039000699</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1796120050.728151</v>
+        <v>1528762781.356997</v>
       </c>
       <c r="F90" t="n">
-        <v>0.100688113495676</v>
+        <v>0.08955670807807108</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03436290214766901</v>
+        <v>0.04174068354988532</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1516336393.017777</v>
+        <v>1308348773.905238</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1902563582485577</v>
+        <v>0.1759870605788106</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05122867490087291</v>
+        <v>0.04474810650571273</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2383294739.89804</v>
+        <v>2670353958.079722</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09120354499896935</v>
+        <v>0.09062138812147288</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0431925945603625</v>
+        <v>0.04313372589799952</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3277693867.451293</v>
+        <v>3914274901.707493</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1312712223789743</v>
+        <v>0.1254236427015361</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03396117288414783</v>
+        <v>0.04698744023796298</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>153</v>
+      </c>
+      <c r="J93" t="n">
+        <v>334</v>
+      </c>
+      <c r="K93" t="n">
+        <v>70.19561498872554</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2218109596.175928</v>
+        <v>2000892888.778424</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1188761745002606</v>
+        <v>0.1109240549512559</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02906175840359816</v>
+        <v>0.04031419877624872</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2098323252.934838</v>
+        <v>3110695062.727373</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09880037362691847</v>
+        <v>0.09303503569490024</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04626634605442109</v>
+        <v>0.03524712091944404</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2026696050.974837</v>
+        <v>2377180660.147019</v>
       </c>
       <c r="F96" t="n">
-        <v>0.134512043088869</v>
+        <v>0.08963699878007234</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04167973224404728</v>
+        <v>0.03534437529079115</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4397892353.815406</v>
+        <v>4583182068.454392</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1666570075467043</v>
+        <v>0.1723175655556715</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02088383960663754</v>
+        <v>0.01909280846802462</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>171</v>
+      </c>
+      <c r="J97" t="n">
+        <v>334</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3520508906.169853</v>
+        <v>3029011922.77055</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1077375976536903</v>
+        <v>0.1273150807817323</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02463740350186139</v>
+        <v>0.02852567983523394</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>83</v>
+      </c>
+      <c r="J98" t="n">
+        <v>332</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3016550802.84905</v>
+        <v>3041037302.799929</v>
       </c>
       <c r="F99" t="n">
-        <v>0.121963665482267</v>
+        <v>0.09450882482923334</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02688441009382778</v>
+        <v>0.034171931760589</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3418668230.548472</v>
+        <v>4485877476.223705</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1150296427636356</v>
+        <v>0.1313511318631423</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02197284445290235</v>
+        <v>0.02538784399206354</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>149</v>
+      </c>
+      <c r="J100" t="n">
+        <v>334</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2785798544.450114</v>
+        <v>3394649699.428961</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2197613710519984</v>
+        <v>0.1425048588512732</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04954996775734847</v>
+        <v>0.04209730802872266</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>331</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
